--- a/platemaps/test.xlsx
+++ b/platemaps/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="-28800" windowWidth="25600" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="16840" yWindow="440" windowWidth="16760" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="397">
   <si>
     <t>n</t>
   </si>
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:K387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1577,7 +1577,7 @@
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1632,22 +1632,22 @@
         <v>392</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1667,13 +1667,16 @@
         <v>393</v>
       </c>
       <c r="F3">
-        <v>-4.5</v>
+        <v>-6</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1694,15 +1697,15 @@
       </c>
       <c r="F4">
         <f>$I$2+I4</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f>$J$2+J4</f>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H4">
         <f>$K$2+K4</f>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1732,15 +1735,15 @@
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F68" si="0">$I$2+I5</f>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G68" si="1">$J$2+J5</f>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H68" si="2">$K$2+K5</f>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I5">
         <v>-4.5</v>
@@ -1770,15 +1773,15 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I6">
         <v>-9</v>
@@ -1808,15 +1811,15 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I7">
         <v>-13.5</v>
@@ -1846,15 +1849,15 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I8">
         <v>-18</v>
@@ -1884,15 +1887,15 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I9">
         <v>-22.5</v>
@@ -1922,15 +1925,15 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I10">
         <v>-27</v>
@@ -1960,15 +1963,15 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I11">
         <v>-31.5</v>
@@ -1998,15 +2001,15 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I12">
         <v>-36</v>
@@ -2036,15 +2039,15 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I13">
         <v>-40.5</v>
@@ -2074,15 +2077,15 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I14">
         <v>-45</v>
@@ -2112,15 +2115,15 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I15">
         <v>-49.5</v>
@@ -2150,15 +2153,15 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I16">
         <v>-54</v>
@@ -2188,15 +2191,15 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I17">
         <v>-58.5</v>
@@ -2226,15 +2229,15 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I18">
         <v>-63</v>
@@ -2264,15 +2267,15 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I19">
         <v>-67.5</v>
@@ -2302,15 +2305,15 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I20">
         <v>-72</v>
@@ -2340,15 +2343,15 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I21">
         <v>-76.5</v>
@@ -2378,15 +2381,15 @@
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I22">
         <v>-81</v>
@@ -2416,15 +2419,15 @@
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I23">
         <v>-85.5</v>
@@ -2454,15 +2457,15 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I24">
         <v>-90</v>
@@ -2492,15 +2495,15 @@
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I25">
         <v>-94.5</v>
@@ -2530,15 +2533,15 @@
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I26">
         <v>-99</v>
@@ -2568,15 +2571,15 @@
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I27">
         <v>-103.5</v>
@@ -2606,15 +2609,15 @@
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2644,15 +2647,15 @@
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I29">
         <v>-4.5</v>
@@ -2682,15 +2685,15 @@
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I30">
         <v>-9</v>
@@ -2720,15 +2723,15 @@
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I31">
         <v>-13.5</v>
@@ -2758,15 +2761,15 @@
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I32">
         <v>-18</v>
@@ -2796,15 +2799,15 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I33">
         <v>-22.5</v>
@@ -2834,15 +2837,15 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I34">
         <v>-27</v>
@@ -2872,15 +2875,15 @@
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I35">
         <v>-31.5</v>
@@ -2910,15 +2913,15 @@
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I36">
         <v>-36</v>
@@ -2948,15 +2951,15 @@
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I37">
         <v>-40.5</v>
@@ -2986,15 +2989,15 @@
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I38">
         <v>-45</v>
@@ -3024,15 +3027,15 @@
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I39">
         <v>-49.5</v>
@@ -3062,15 +3065,15 @@
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I40">
         <v>-54</v>
@@ -3100,15 +3103,15 @@
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I41">
         <v>-58.5</v>
@@ -3138,15 +3141,15 @@
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I42">
         <v>-63</v>
@@ -3176,15 +3179,15 @@
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I43">
         <v>-67.5</v>
@@ -3214,15 +3217,15 @@
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I44">
         <v>-72</v>
@@ -3252,15 +3255,15 @@
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I45">
         <v>-76.5</v>
@@ -3290,15 +3293,15 @@
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I46">
         <v>-81</v>
@@ -3328,15 +3331,15 @@
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I47">
         <v>-85.5</v>
@@ -3366,15 +3369,15 @@
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I48">
         <v>-90</v>
@@ -3404,15 +3407,15 @@
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I49">
         <v>-94.5</v>
@@ -3442,15 +3445,15 @@
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I50">
         <v>-99</v>
@@ -3480,15 +3483,15 @@
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>33.5</v>
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I51">
         <v>-103.5</v>
@@ -3518,15 +3521,15 @@
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3556,15 +3559,15 @@
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I53">
         <v>-4.5</v>
@@ -3594,15 +3597,15 @@
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I54">
         <v>-9</v>
@@ -3632,15 +3635,15 @@
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I55">
         <v>-13.5</v>
@@ -3670,15 +3673,15 @@
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I56">
         <v>-18</v>
@@ -3708,15 +3711,15 @@
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I57">
         <v>-22.5</v>
@@ -3746,15 +3749,15 @@
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I58">
         <v>-27</v>
@@ -3784,15 +3787,15 @@
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I59">
         <v>-31.5</v>
@@ -3822,15 +3825,15 @@
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I60">
         <v>-36</v>
@@ -3860,15 +3863,15 @@
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G61">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I61">
         <v>-40.5</v>
@@ -3898,15 +3901,15 @@
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G62">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I62">
         <v>-45</v>
@@ -3936,15 +3939,15 @@
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G63">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I63">
         <v>-49.5</v>
@@ -3974,15 +3977,15 @@
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G64">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I64">
         <v>-54</v>
@@ -4012,15 +4015,15 @@
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G65">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I65">
         <v>-58.5</v>
@@ -4050,15 +4053,15 @@
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G66">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I66">
         <v>-63</v>
@@ -4088,15 +4091,15 @@
       </c>
       <c r="F67">
         <f t="shared" si="0"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I67">
         <v>-67.5</v>
@@ -4126,15 +4129,15 @@
       </c>
       <c r="F68">
         <f t="shared" si="0"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G68">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I68">
         <v>-72</v>
@@ -4164,15 +4167,15 @@
       </c>
       <c r="F69">
         <f t="shared" ref="F69:F132" si="3">$I$2+I69</f>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G69">
         <f t="shared" ref="G69:G132" si="4">$J$2+J69</f>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <f t="shared" ref="H69:H132" si="5">$K$2+K69</f>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I69">
         <v>-76.5</v>
@@ -4202,15 +4205,15 @@
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I70">
         <v>-81</v>
@@ -4240,15 +4243,15 @@
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I71">
         <v>-85.5</v>
@@ -4278,15 +4281,15 @@
       </c>
       <c r="F72">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H72">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I72">
         <v>-90</v>
@@ -4316,15 +4319,15 @@
       </c>
       <c r="F73">
         <f t="shared" si="3"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I73">
         <v>-94.5</v>
@@ -4354,15 +4357,15 @@
       </c>
       <c r="F74">
         <f t="shared" si="3"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I74">
         <v>-99</v>
@@ -4392,15 +4395,15 @@
       </c>
       <c r="F75">
         <f t="shared" si="3"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H75">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I75">
         <v>-103.5</v>
@@ -4430,15 +4433,15 @@
       </c>
       <c r="F76">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H76">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -4468,15 +4471,15 @@
       </c>
       <c r="F77">
         <f t="shared" si="3"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I77">
         <v>-4.5</v>
@@ -4506,15 +4509,15 @@
       </c>
       <c r="F78">
         <f t="shared" si="3"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I78">
         <v>-9</v>
@@ -4544,15 +4547,15 @@
       </c>
       <c r="F79">
         <f t="shared" si="3"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H79">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I79">
         <v>-13.5</v>
@@ -4582,15 +4585,15 @@
       </c>
       <c r="F80">
         <f t="shared" si="3"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H80">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I80">
         <v>-18</v>
@@ -4620,15 +4623,15 @@
       </c>
       <c r="F81">
         <f t="shared" si="3"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H81">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I81">
         <v>-22.5</v>
@@ -4658,15 +4661,15 @@
       </c>
       <c r="F82">
         <f t="shared" si="3"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H82">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I82">
         <v>-27</v>
@@ -4696,15 +4699,15 @@
       </c>
       <c r="F83">
         <f t="shared" si="3"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G83">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H83">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I83">
         <v>-31.5</v>
@@ -4734,15 +4737,15 @@
       </c>
       <c r="F84">
         <f t="shared" si="3"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G84">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H84">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I84">
         <v>-36</v>
@@ -4772,15 +4775,15 @@
       </c>
       <c r="F85">
         <f t="shared" si="3"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G85">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I85">
         <v>-40.5</v>
@@ -4810,15 +4813,15 @@
       </c>
       <c r="F86">
         <f t="shared" si="3"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G86">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H86">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I86">
         <v>-45</v>
@@ -4848,15 +4851,15 @@
       </c>
       <c r="F87">
         <f t="shared" si="3"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G87">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H87">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I87">
         <v>-49.5</v>
@@ -4886,15 +4889,15 @@
       </c>
       <c r="F88">
         <f t="shared" si="3"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G88">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H88">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I88">
         <v>-54</v>
@@ -4924,15 +4927,15 @@
       </c>
       <c r="F89">
         <f t="shared" si="3"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G89">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H89">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I89">
         <v>-58.5</v>
@@ -4962,15 +4965,15 @@
       </c>
       <c r="F90">
         <f t="shared" si="3"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G90">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H90">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I90">
         <v>-63</v>
@@ -5000,15 +5003,15 @@
       </c>
       <c r="F91">
         <f t="shared" si="3"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H91">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I91">
         <v>-67.5</v>
@@ -5038,15 +5041,15 @@
       </c>
       <c r="F92">
         <f t="shared" si="3"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G92">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H92">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I92">
         <v>-72</v>
@@ -5076,15 +5079,15 @@
       </c>
       <c r="F93">
         <f t="shared" si="3"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G93">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H93">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I93">
         <v>-76.5</v>
@@ -5114,15 +5117,15 @@
       </c>
       <c r="F94">
         <f t="shared" si="3"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H94">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I94">
         <v>-81</v>
@@ -5152,15 +5155,15 @@
       </c>
       <c r="F95">
         <f t="shared" si="3"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H95">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I95">
         <v>-85.5</v>
@@ -5190,15 +5193,15 @@
       </c>
       <c r="F96">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H96">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I96">
         <v>-90</v>
@@ -5228,15 +5231,15 @@
       </c>
       <c r="F97">
         <f t="shared" si="3"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H97">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I97">
         <v>-94.5</v>
@@ -5266,15 +5269,15 @@
       </c>
       <c r="F98">
         <f t="shared" si="3"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H98">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I98">
         <v>-99</v>
@@ -5304,15 +5307,15 @@
       </c>
       <c r="F99">
         <f t="shared" si="3"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>42.5</v>
       </c>
       <c r="H99">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I99">
         <v>-103.5</v>
@@ -5342,15 +5345,15 @@
       </c>
       <c r="F100">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H100">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -5380,15 +5383,15 @@
       </c>
       <c r="F101">
         <f t="shared" si="3"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G101">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H101">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I101">
         <v>-4.5</v>
@@ -5418,15 +5421,15 @@
       </c>
       <c r="F102">
         <f t="shared" si="3"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G102">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H102">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I102">
         <v>-9</v>
@@ -5456,15 +5459,15 @@
       </c>
       <c r="F103">
         <f t="shared" si="3"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G103">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H103">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I103">
         <v>-13.5</v>
@@ -5494,15 +5497,15 @@
       </c>
       <c r="F104">
         <f t="shared" si="3"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G104">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H104">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I104">
         <v>-18</v>
@@ -5532,15 +5535,15 @@
       </c>
       <c r="F105">
         <f t="shared" si="3"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G105">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H105">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I105">
         <v>-22.5</v>
@@ -5570,15 +5573,15 @@
       </c>
       <c r="F106">
         <f t="shared" si="3"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G106">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H106">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I106">
         <v>-27</v>
@@ -5608,15 +5611,15 @@
       </c>
       <c r="F107">
         <f t="shared" si="3"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G107">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H107">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I107">
         <v>-31.5</v>
@@ -5646,15 +5649,15 @@
       </c>
       <c r="F108">
         <f t="shared" si="3"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G108">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H108">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I108">
         <v>-36</v>
@@ -5684,15 +5687,15 @@
       </c>
       <c r="F109">
         <f t="shared" si="3"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G109">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H109">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I109">
         <v>-40.5</v>
@@ -5722,15 +5725,15 @@
       </c>
       <c r="F110">
         <f t="shared" si="3"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G110">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H110">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I110">
         <v>-45</v>
@@ -5760,15 +5763,15 @@
       </c>
       <c r="F111">
         <f t="shared" si="3"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G111">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H111">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I111">
         <v>-49.5</v>
@@ -5798,15 +5801,15 @@
       </c>
       <c r="F112">
         <f t="shared" si="3"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G112">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H112">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I112">
         <v>-54</v>
@@ -5836,15 +5839,15 @@
       </c>
       <c r="F113">
         <f t="shared" si="3"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G113">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H113">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I113">
         <v>-58.5</v>
@@ -5874,15 +5877,15 @@
       </c>
       <c r="F114">
         <f t="shared" si="3"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G114">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H114">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I114">
         <v>-63</v>
@@ -5912,15 +5915,15 @@
       </c>
       <c r="F115">
         <f t="shared" si="3"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G115">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H115">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I115">
         <v>-67.5</v>
@@ -5950,15 +5953,15 @@
       </c>
       <c r="F116">
         <f t="shared" si="3"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G116">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H116">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I116">
         <v>-72</v>
@@ -5988,15 +5991,15 @@
       </c>
       <c r="F117">
         <f t="shared" si="3"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G117">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H117">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I117">
         <v>-76.5</v>
@@ -6026,15 +6029,15 @@
       </c>
       <c r="F118">
         <f t="shared" si="3"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G118">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H118">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I118">
         <v>-81</v>
@@ -6064,15 +6067,15 @@
       </c>
       <c r="F119">
         <f t="shared" si="3"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G119">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H119">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I119">
         <v>-85.5</v>
@@ -6102,15 +6105,15 @@
       </c>
       <c r="F120">
         <f t="shared" si="3"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G120">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H120">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I120">
         <v>-90</v>
@@ -6140,15 +6143,15 @@
       </c>
       <c r="F121">
         <f t="shared" si="3"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G121">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H121">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I121">
         <v>-94.5</v>
@@ -6178,15 +6181,15 @@
       </c>
       <c r="F122">
         <f t="shared" si="3"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G122">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H122">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I122">
         <v>-99</v>
@@ -6216,15 +6219,15 @@
       </c>
       <c r="F123">
         <f t="shared" si="3"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G123">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H123">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I123">
         <v>-103.5</v>
@@ -6254,15 +6257,15 @@
       </c>
       <c r="F124">
         <f t="shared" si="3"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G124">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H124">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -6292,15 +6295,15 @@
       </c>
       <c r="F125">
         <f t="shared" si="3"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G125">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H125">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I125">
         <v>-4.5</v>
@@ -6330,15 +6333,15 @@
       </c>
       <c r="F126">
         <f t="shared" si="3"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G126">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H126">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I126">
         <v>-9</v>
@@ -6368,15 +6371,15 @@
       </c>
       <c r="F127">
         <f t="shared" si="3"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G127">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H127">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I127">
         <v>-13.5</v>
@@ -6406,15 +6409,15 @@
       </c>
       <c r="F128">
         <f t="shared" si="3"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G128">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H128">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I128">
         <v>-18</v>
@@ -6444,15 +6447,15 @@
       </c>
       <c r="F129">
         <f t="shared" si="3"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G129">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H129">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I129">
         <v>-22.5</v>
@@ -6482,15 +6485,15 @@
       </c>
       <c r="F130">
         <f t="shared" si="3"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G130">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H130">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I130">
         <v>-27</v>
@@ -6520,15 +6523,15 @@
       </c>
       <c r="F131">
         <f t="shared" si="3"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G131">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H131">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I131">
         <v>-31.5</v>
@@ -6558,15 +6561,15 @@
       </c>
       <c r="F132">
         <f t="shared" si="3"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G132">
         <f t="shared" si="4"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H132">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I132">
         <v>-36</v>
@@ -6596,15 +6599,15 @@
       </c>
       <c r="F133">
         <f t="shared" ref="F133:F196" si="6">$I$2+I133</f>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G133">
         <f t="shared" ref="G133:G196" si="7">$J$2+J133</f>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H133">
         <f t="shared" ref="H133:H196" si="8">$K$2+K133</f>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I133">
         <v>-40.5</v>
@@ -6634,15 +6637,15 @@
       </c>
       <c r="F134">
         <f t="shared" si="6"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G134">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H134">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I134">
         <v>-45</v>
@@ -6672,15 +6675,15 @@
       </c>
       <c r="F135">
         <f t="shared" si="6"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G135">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H135">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I135">
         <v>-49.5</v>
@@ -6710,15 +6713,15 @@
       </c>
       <c r="F136">
         <f t="shared" si="6"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G136">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H136">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I136">
         <v>-54</v>
@@ -6748,15 +6751,15 @@
       </c>
       <c r="F137">
         <f t="shared" si="6"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G137">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H137">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I137">
         <v>-58.5</v>
@@ -6786,15 +6789,15 @@
       </c>
       <c r="F138">
         <f t="shared" si="6"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G138">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H138">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I138">
         <v>-63</v>
@@ -6824,15 +6827,15 @@
       </c>
       <c r="F139">
         <f t="shared" si="6"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G139">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H139">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I139">
         <v>-67.5</v>
@@ -6862,15 +6865,15 @@
       </c>
       <c r="F140">
         <f t="shared" si="6"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G140">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H140">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I140">
         <v>-72</v>
@@ -6900,15 +6903,15 @@
       </c>
       <c r="F141">
         <f t="shared" si="6"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G141">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H141">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I141">
         <v>-76.5</v>
@@ -6938,15 +6941,15 @@
       </c>
       <c r="F142">
         <f t="shared" si="6"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G142">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H142">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I142">
         <v>-81</v>
@@ -6976,15 +6979,15 @@
       </c>
       <c r="F143">
         <f t="shared" si="6"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G143">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H143">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I143">
         <v>-85.5</v>
@@ -7014,15 +7017,15 @@
       </c>
       <c r="F144">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G144">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H144">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I144">
         <v>-90</v>
@@ -7052,15 +7055,15 @@
       </c>
       <c r="F145">
         <f t="shared" si="6"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G145">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H145">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I145">
         <v>-94.5</v>
@@ -7090,15 +7093,15 @@
       </c>
       <c r="F146">
         <f t="shared" si="6"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G146">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H146">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I146">
         <v>-99</v>
@@ -7128,15 +7131,15 @@
       </c>
       <c r="F147">
         <f t="shared" si="6"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G147">
         <f t="shared" si="7"/>
-        <v>27.5</v>
+        <v>51.5</v>
       </c>
       <c r="H147">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I147">
         <v>-103.5</v>
@@ -7166,15 +7169,15 @@
       </c>
       <c r="F148">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G148">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H148">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -7204,15 +7207,15 @@
       </c>
       <c r="F149">
         <f t="shared" si="6"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G149">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H149">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I149">
         <v>-4.5</v>
@@ -7242,15 +7245,15 @@
       </c>
       <c r="F150">
         <f t="shared" si="6"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G150">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H150">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I150">
         <v>-9</v>
@@ -7280,15 +7283,15 @@
       </c>
       <c r="F151">
         <f t="shared" si="6"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G151">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H151">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I151">
         <v>-13.5</v>
@@ -7318,15 +7321,15 @@
       </c>
       <c r="F152">
         <f t="shared" si="6"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G152">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H152">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I152">
         <v>-18</v>
@@ -7356,15 +7359,15 @@
       </c>
       <c r="F153">
         <f t="shared" si="6"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G153">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H153">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I153">
         <v>-22.5</v>
@@ -7394,15 +7397,15 @@
       </c>
       <c r="F154">
         <f t="shared" si="6"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G154">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H154">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I154">
         <v>-27</v>
@@ -7432,15 +7435,15 @@
       </c>
       <c r="F155">
         <f t="shared" si="6"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G155">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H155">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I155">
         <v>-31.5</v>
@@ -7470,15 +7473,15 @@
       </c>
       <c r="F156">
         <f t="shared" si="6"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G156">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H156">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I156">
         <v>-36</v>
@@ -7508,15 +7511,15 @@
       </c>
       <c r="F157">
         <f t="shared" si="6"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G157">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H157">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I157">
         <v>-40.5</v>
@@ -7546,15 +7549,15 @@
       </c>
       <c r="F158">
         <f t="shared" si="6"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G158">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H158">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I158">
         <v>-45</v>
@@ -7584,15 +7587,15 @@
       </c>
       <c r="F159">
         <f t="shared" si="6"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G159">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H159">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I159">
         <v>-49.5</v>
@@ -7622,15 +7625,15 @@
       </c>
       <c r="F160">
         <f t="shared" si="6"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G160">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H160">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I160">
         <v>-54</v>
@@ -7660,15 +7663,15 @@
       </c>
       <c r="F161">
         <f t="shared" si="6"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G161">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H161">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I161">
         <v>-58.5</v>
@@ -7698,15 +7701,15 @@
       </c>
       <c r="F162">
         <f t="shared" si="6"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G162">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H162">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I162">
         <v>-63</v>
@@ -7736,15 +7739,15 @@
       </c>
       <c r="F163">
         <f t="shared" si="6"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G163">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H163">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I163">
         <v>-67.5</v>
@@ -7774,15 +7777,15 @@
       </c>
       <c r="F164">
         <f t="shared" si="6"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G164">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H164">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I164">
         <v>-72</v>
@@ -7812,15 +7815,15 @@
       </c>
       <c r="F165">
         <f t="shared" si="6"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G165">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H165">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I165">
         <v>-76.5</v>
@@ -7850,15 +7853,15 @@
       </c>
       <c r="F166">
         <f t="shared" si="6"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G166">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H166">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I166">
         <v>-81</v>
@@ -7888,15 +7891,15 @@
       </c>
       <c r="F167">
         <f t="shared" si="6"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G167">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H167">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I167">
         <v>-85.5</v>
@@ -7926,15 +7929,15 @@
       </c>
       <c r="F168">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G168">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H168">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I168">
         <v>-90</v>
@@ -7964,15 +7967,15 @@
       </c>
       <c r="F169">
         <f t="shared" si="6"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G169">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H169">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I169">
         <v>-94.5</v>
@@ -8002,15 +8005,15 @@
       </c>
       <c r="F170">
         <f t="shared" si="6"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G170">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H170">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I170">
         <v>-99</v>
@@ -8040,15 +8043,15 @@
       </c>
       <c r="F171">
         <f t="shared" si="6"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G171">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H171">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I171">
         <v>-103.5</v>
@@ -8078,15 +8081,15 @@
       </c>
       <c r="F172">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G172">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H172">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -8116,15 +8119,15 @@
       </c>
       <c r="F173">
         <f t="shared" si="6"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G173">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H173">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I173">
         <v>-4.5</v>
@@ -8154,15 +8157,15 @@
       </c>
       <c r="F174">
         <f t="shared" si="6"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G174">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H174">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I174">
         <v>-9</v>
@@ -8192,15 +8195,15 @@
       </c>
       <c r="F175">
         <f t="shared" si="6"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G175">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H175">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I175">
         <v>-13.5</v>
@@ -8230,15 +8233,15 @@
       </c>
       <c r="F176">
         <f t="shared" si="6"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G176">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H176">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I176">
         <v>-18</v>
@@ -8268,15 +8271,15 @@
       </c>
       <c r="F177">
         <f t="shared" si="6"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G177">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H177">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I177">
         <v>-22.5</v>
@@ -8306,15 +8309,15 @@
       </c>
       <c r="F178">
         <f t="shared" si="6"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G178">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H178">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I178">
         <v>-27</v>
@@ -8344,15 +8347,15 @@
       </c>
       <c r="F179">
         <f t="shared" si="6"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G179">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H179">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I179">
         <v>-31.5</v>
@@ -8382,15 +8385,15 @@
       </c>
       <c r="F180">
         <f t="shared" si="6"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G180">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H180">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I180">
         <v>-36</v>
@@ -8420,15 +8423,15 @@
       </c>
       <c r="F181">
         <f t="shared" si="6"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G181">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H181">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I181">
         <v>-40.5</v>
@@ -8458,15 +8461,15 @@
       </c>
       <c r="F182">
         <f t="shared" si="6"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G182">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H182">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I182">
         <v>-45</v>
@@ -8496,15 +8499,15 @@
       </c>
       <c r="F183">
         <f t="shared" si="6"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G183">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H183">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I183">
         <v>-49.5</v>
@@ -8534,15 +8537,15 @@
       </c>
       <c r="F184">
         <f t="shared" si="6"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G184">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H184">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I184">
         <v>-54</v>
@@ -8572,15 +8575,15 @@
       </c>
       <c r="F185">
         <f t="shared" si="6"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G185">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H185">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I185">
         <v>-58.5</v>
@@ -8610,15 +8613,15 @@
       </c>
       <c r="F186">
         <f t="shared" si="6"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G186">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H186">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I186">
         <v>-63</v>
@@ -8648,15 +8651,15 @@
       </c>
       <c r="F187">
         <f t="shared" si="6"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G187">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H187">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I187">
         <v>-67.5</v>
@@ -8686,15 +8689,15 @@
       </c>
       <c r="F188">
         <f t="shared" si="6"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G188">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H188">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I188">
         <v>-72</v>
@@ -8724,15 +8727,15 @@
       </c>
       <c r="F189">
         <f t="shared" si="6"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G189">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H189">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I189">
         <v>-76.5</v>
@@ -8762,15 +8765,15 @@
       </c>
       <c r="F190">
         <f t="shared" si="6"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G190">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H190">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I190">
         <v>-81</v>
@@ -8800,15 +8803,15 @@
       </c>
       <c r="F191">
         <f t="shared" si="6"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G191">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H191">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I191">
         <v>-85.5</v>
@@ -8838,15 +8841,15 @@
       </c>
       <c r="F192">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G192">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H192">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I192">
         <v>-90</v>
@@ -8876,15 +8879,15 @@
       </c>
       <c r="F193">
         <f t="shared" si="6"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G193">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H193">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I193">
         <v>-94.5</v>
@@ -8914,15 +8917,15 @@
       </c>
       <c r="F194">
         <f t="shared" si="6"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G194">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H194">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I194">
         <v>-99</v>
@@ -8952,15 +8955,15 @@
       </c>
       <c r="F195">
         <f t="shared" si="6"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G195">
         <f t="shared" si="7"/>
-        <v>36.5</v>
+        <v>60.5</v>
       </c>
       <c r="H195">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I195">
         <v>-103.5</v>
@@ -8990,15 +8993,15 @@
       </c>
       <c r="F196">
         <f t="shared" si="6"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G196">
         <f t="shared" si="7"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H196">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -9028,15 +9031,15 @@
       </c>
       <c r="F197">
         <f t="shared" ref="F197:F260" si="9">$I$2+I197</f>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G197">
         <f t="shared" ref="G197:G260" si="10">$J$2+J197</f>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H197">
         <f t="shared" ref="H197:H260" si="11">$K$2+K197</f>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I197">
         <v>-4.5</v>
@@ -9066,15 +9069,15 @@
       </c>
       <c r="F198">
         <f t="shared" si="9"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G198">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H198">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I198">
         <v>-9</v>
@@ -9104,15 +9107,15 @@
       </c>
       <c r="F199">
         <f t="shared" si="9"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G199">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H199">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I199">
         <v>-13.5</v>
@@ -9142,15 +9145,15 @@
       </c>
       <c r="F200">
         <f t="shared" si="9"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G200">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H200">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I200">
         <v>-18</v>
@@ -9180,15 +9183,15 @@
       </c>
       <c r="F201">
         <f t="shared" si="9"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G201">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H201">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I201">
         <v>-22.5</v>
@@ -9218,15 +9221,15 @@
       </c>
       <c r="F202">
         <f t="shared" si="9"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G202">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H202">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I202">
         <v>-27</v>
@@ -9256,15 +9259,15 @@
       </c>
       <c r="F203">
         <f t="shared" si="9"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G203">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H203">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I203">
         <v>-31.5</v>
@@ -9294,15 +9297,15 @@
       </c>
       <c r="F204">
         <f t="shared" si="9"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G204">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H204">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I204">
         <v>-36</v>
@@ -9332,15 +9335,15 @@
       </c>
       <c r="F205">
         <f t="shared" si="9"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G205">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H205">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I205">
         <v>-40.5</v>
@@ -9370,15 +9373,15 @@
       </c>
       <c r="F206">
         <f t="shared" si="9"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G206">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H206">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I206">
         <v>-45</v>
@@ -9408,15 +9411,15 @@
       </c>
       <c r="F207">
         <f t="shared" si="9"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G207">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H207">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I207">
         <v>-49.5</v>
@@ -9446,15 +9449,15 @@
       </c>
       <c r="F208">
         <f t="shared" si="9"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G208">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H208">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I208">
         <v>-54</v>
@@ -9484,15 +9487,15 @@
       </c>
       <c r="F209">
         <f t="shared" si="9"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G209">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H209">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I209">
         <v>-58.5</v>
@@ -9522,15 +9525,15 @@
       </c>
       <c r="F210">
         <f t="shared" si="9"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G210">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H210">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I210">
         <v>-63</v>
@@ -9560,15 +9563,15 @@
       </c>
       <c r="F211">
         <f t="shared" si="9"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G211">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H211">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I211">
         <v>-67.5</v>
@@ -9598,15 +9601,15 @@
       </c>
       <c r="F212">
         <f t="shared" si="9"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G212">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H212">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I212">
         <v>-72</v>
@@ -9636,15 +9639,15 @@
       </c>
       <c r="F213">
         <f t="shared" si="9"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G213">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H213">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I213">
         <v>-76.5</v>
@@ -9674,15 +9677,15 @@
       </c>
       <c r="F214">
         <f t="shared" si="9"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G214">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H214">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I214">
         <v>-81</v>
@@ -9712,15 +9715,15 @@
       </c>
       <c r="F215">
         <f t="shared" si="9"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G215">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H215">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I215">
         <v>-85.5</v>
@@ -9750,15 +9753,15 @@
       </c>
       <c r="F216">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G216">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H216">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I216">
         <v>-90</v>
@@ -9788,15 +9791,15 @@
       </c>
       <c r="F217">
         <f t="shared" si="9"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G217">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H217">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I217">
         <v>-94.5</v>
@@ -9826,15 +9829,15 @@
       </c>
       <c r="F218">
         <f t="shared" si="9"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G218">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H218">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I218">
         <v>-99</v>
@@ -9864,15 +9867,15 @@
       </c>
       <c r="F219">
         <f t="shared" si="9"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G219">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="H219">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I219">
         <v>-103.5</v>
@@ -9902,15 +9905,15 @@
       </c>
       <c r="F220">
         <f t="shared" si="9"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H220">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -9940,15 +9943,15 @@
       </c>
       <c r="F221">
         <f t="shared" si="9"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G221">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H221">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I221">
         <v>-4.5</v>
@@ -9978,15 +9981,15 @@
       </c>
       <c r="F222">
         <f t="shared" si="9"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G222">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H222">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I222">
         <v>-9</v>
@@ -10016,15 +10019,15 @@
       </c>
       <c r="F223">
         <f t="shared" si="9"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G223">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H223">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I223">
         <v>-13.5</v>
@@ -10054,15 +10057,15 @@
       </c>
       <c r="F224">
         <f t="shared" si="9"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G224">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H224">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I224">
         <v>-18</v>
@@ -10092,15 +10095,15 @@
       </c>
       <c r="F225">
         <f t="shared" si="9"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G225">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H225">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I225">
         <v>-22.5</v>
@@ -10130,15 +10133,15 @@
       </c>
       <c r="F226">
         <f t="shared" si="9"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G226">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H226">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I226">
         <v>-27</v>
@@ -10168,15 +10171,15 @@
       </c>
       <c r="F227">
         <f t="shared" si="9"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G227">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H227">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I227">
         <v>-31.5</v>
@@ -10206,15 +10209,15 @@
       </c>
       <c r="F228">
         <f t="shared" si="9"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G228">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H228">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I228">
         <v>-36</v>
@@ -10244,15 +10247,15 @@
       </c>
       <c r="F229">
         <f t="shared" si="9"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G229">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H229">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I229">
         <v>-40.5</v>
@@ -10282,15 +10285,15 @@
       </c>
       <c r="F230">
         <f t="shared" si="9"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G230">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H230">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I230">
         <v>-45</v>
@@ -10320,15 +10323,15 @@
       </c>
       <c r="F231">
         <f t="shared" si="9"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G231">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H231">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I231">
         <v>-49.5</v>
@@ -10358,15 +10361,15 @@
       </c>
       <c r="F232">
         <f t="shared" si="9"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G232">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H232">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I232">
         <v>-54</v>
@@ -10396,15 +10399,15 @@
       </c>
       <c r="F233">
         <f t="shared" si="9"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G233">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H233">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I233">
         <v>-58.5</v>
@@ -10434,15 +10437,15 @@
       </c>
       <c r="F234">
         <f t="shared" si="9"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G234">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H234">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I234">
         <v>-63</v>
@@ -10472,15 +10475,15 @@
       </c>
       <c r="F235">
         <f t="shared" si="9"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G235">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H235">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I235">
         <v>-67.5</v>
@@ -10510,15 +10513,15 @@
       </c>
       <c r="F236">
         <f t="shared" si="9"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G236">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H236">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I236">
         <v>-72</v>
@@ -10548,15 +10551,15 @@
       </c>
       <c r="F237">
         <f t="shared" si="9"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G237">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H237">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I237">
         <v>-76.5</v>
@@ -10586,15 +10589,15 @@
       </c>
       <c r="F238">
         <f t="shared" si="9"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G238">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H238">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I238">
         <v>-81</v>
@@ -10624,15 +10627,15 @@
       </c>
       <c r="F239">
         <f t="shared" si="9"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G239">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H239">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I239">
         <v>-85.5</v>
@@ -10662,15 +10665,15 @@
       </c>
       <c r="F240">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G240">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H240">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I240">
         <v>-90</v>
@@ -10700,15 +10703,15 @@
       </c>
       <c r="F241">
         <f t="shared" si="9"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G241">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H241">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I241">
         <v>-94.5</v>
@@ -10738,15 +10741,15 @@
       </c>
       <c r="F242">
         <f t="shared" si="9"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G242">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H242">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I242">
         <v>-99</v>
@@ -10776,15 +10779,15 @@
       </c>
       <c r="F243">
         <f t="shared" si="9"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G243">
         <f t="shared" si="10"/>
-        <v>45.5</v>
+        <v>69.5</v>
       </c>
       <c r="H243">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I243">
         <v>-103.5</v>
@@ -10814,15 +10817,15 @@
       </c>
       <c r="F244">
         <f t="shared" si="9"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G244">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H244">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -10852,15 +10855,15 @@
       </c>
       <c r="F245">
         <f t="shared" si="9"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G245">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H245">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I245">
         <v>-4.5</v>
@@ -10890,15 +10893,15 @@
       </c>
       <c r="F246">
         <f t="shared" si="9"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G246">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H246">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I246">
         <v>-9</v>
@@ -10928,15 +10931,15 @@
       </c>
       <c r="F247">
         <f t="shared" si="9"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G247">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H247">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I247">
         <v>-13.5</v>
@@ -10966,15 +10969,15 @@
       </c>
       <c r="F248">
         <f t="shared" si="9"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G248">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H248">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I248">
         <v>-18</v>
@@ -11004,15 +11007,15 @@
       </c>
       <c r="F249">
         <f t="shared" si="9"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G249">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H249">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I249">
         <v>-22.5</v>
@@ -11042,15 +11045,15 @@
       </c>
       <c r="F250">
         <f t="shared" si="9"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G250">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H250">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I250">
         <v>-27</v>
@@ -11080,15 +11083,15 @@
       </c>
       <c r="F251">
         <f t="shared" si="9"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G251">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H251">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I251">
         <v>-31.5</v>
@@ -11118,15 +11121,15 @@
       </c>
       <c r="F252">
         <f t="shared" si="9"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G252">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H252">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I252">
         <v>-36</v>
@@ -11156,15 +11159,15 @@
       </c>
       <c r="F253">
         <f t="shared" si="9"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G253">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H253">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I253">
         <v>-40.5</v>
@@ -11194,15 +11197,15 @@
       </c>
       <c r="F254">
         <f t="shared" si="9"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G254">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H254">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I254">
         <v>-45</v>
@@ -11232,15 +11235,15 @@
       </c>
       <c r="F255">
         <f t="shared" si="9"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G255">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H255">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I255">
         <v>-49.5</v>
@@ -11270,15 +11273,15 @@
       </c>
       <c r="F256">
         <f t="shared" si="9"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G256">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H256">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I256">
         <v>-54</v>
@@ -11308,15 +11311,15 @@
       </c>
       <c r="F257">
         <f t="shared" si="9"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G257">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H257">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I257">
         <v>-58.5</v>
@@ -11346,15 +11349,15 @@
       </c>
       <c r="F258">
         <f t="shared" si="9"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G258">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H258">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I258">
         <v>-63</v>
@@ -11384,15 +11387,15 @@
       </c>
       <c r="F259">
         <f t="shared" si="9"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G259">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H259">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I259">
         <v>-67.5</v>
@@ -11422,15 +11425,15 @@
       </c>
       <c r="F260">
         <f t="shared" si="9"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G260">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H260">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I260">
         <v>-72</v>
@@ -11460,15 +11463,15 @@
       </c>
       <c r="F261">
         <f t="shared" ref="F261:F324" si="12">$I$2+I261</f>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G261">
         <f t="shared" ref="G261:G324" si="13">$J$2+J261</f>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H261">
         <f t="shared" ref="H261:H324" si="14">$K$2+K261</f>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I261">
         <v>-76.5</v>
@@ -11498,15 +11501,15 @@
       </c>
       <c r="F262">
         <f t="shared" si="12"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G262">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H262">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I262">
         <v>-81</v>
@@ -11536,15 +11539,15 @@
       </c>
       <c r="F263">
         <f t="shared" si="12"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G263">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H263">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I263">
         <v>-85.5</v>
@@ -11574,15 +11577,15 @@
       </c>
       <c r="F264">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G264">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H264">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I264">
         <v>-90</v>
@@ -11612,15 +11615,15 @@
       </c>
       <c r="F265">
         <f t="shared" si="12"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G265">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H265">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I265">
         <v>-94.5</v>
@@ -11650,15 +11653,15 @@
       </c>
       <c r="F266">
         <f t="shared" si="12"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G266">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H266">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I266">
         <v>-99</v>
@@ -11688,15 +11691,15 @@
       </c>
       <c r="F267">
         <f t="shared" si="12"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G267">
         <f t="shared" si="13"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H267">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I267">
         <v>-103.5</v>
@@ -11726,15 +11729,15 @@
       </c>
       <c r="F268">
         <f t="shared" si="12"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G268">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H268">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -11764,15 +11767,15 @@
       </c>
       <c r="F269">
         <f t="shared" si="12"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G269">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H269">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I269">
         <v>-4.5</v>
@@ -11802,15 +11805,15 @@
       </c>
       <c r="F270">
         <f t="shared" si="12"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G270">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H270">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I270">
         <v>-9</v>
@@ -11840,15 +11843,15 @@
       </c>
       <c r="F271">
         <f t="shared" si="12"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G271">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H271">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I271">
         <v>-13.5</v>
@@ -11878,15 +11881,15 @@
       </c>
       <c r="F272">
         <f t="shared" si="12"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G272">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H272">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I272">
         <v>-18</v>
@@ -11916,15 +11919,15 @@
       </c>
       <c r="F273">
         <f t="shared" si="12"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G273">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H273">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I273">
         <v>-22.5</v>
@@ -11954,15 +11957,15 @@
       </c>
       <c r="F274">
         <f t="shared" si="12"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G274">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H274">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I274">
         <v>-27</v>
@@ -11992,15 +11995,15 @@
       </c>
       <c r="F275">
         <f t="shared" si="12"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G275">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H275">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I275">
         <v>-31.5</v>
@@ -12030,15 +12033,15 @@
       </c>
       <c r="F276">
         <f t="shared" si="12"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G276">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H276">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I276">
         <v>-36</v>
@@ -12068,15 +12071,15 @@
       </c>
       <c r="F277">
         <f t="shared" si="12"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G277">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H277">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I277">
         <v>-40.5</v>
@@ -12106,15 +12109,15 @@
       </c>
       <c r="F278">
         <f t="shared" si="12"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G278">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H278">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I278">
         <v>-45</v>
@@ -12144,15 +12147,15 @@
       </c>
       <c r="F279">
         <f t="shared" si="12"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G279">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H279">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I279">
         <v>-49.5</v>
@@ -12182,15 +12185,15 @@
       </c>
       <c r="F280">
         <f t="shared" si="12"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G280">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H280">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I280">
         <v>-54</v>
@@ -12220,15 +12223,15 @@
       </c>
       <c r="F281">
         <f t="shared" si="12"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G281">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H281">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I281">
         <v>-58.5</v>
@@ -12258,15 +12261,15 @@
       </c>
       <c r="F282">
         <f t="shared" si="12"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G282">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H282">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I282">
         <v>-63</v>
@@ -12296,15 +12299,15 @@
       </c>
       <c r="F283">
         <f t="shared" si="12"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G283">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H283">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I283">
         <v>-67.5</v>
@@ -12334,15 +12337,15 @@
       </c>
       <c r="F284">
         <f t="shared" si="12"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G284">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I284">
         <v>-72</v>
@@ -12372,15 +12375,15 @@
       </c>
       <c r="F285">
         <f t="shared" si="12"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G285">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H285">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I285">
         <v>-76.5</v>
@@ -12410,15 +12413,15 @@
       </c>
       <c r="F286">
         <f t="shared" si="12"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G286">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H286">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I286">
         <v>-81</v>
@@ -12448,15 +12451,15 @@
       </c>
       <c r="F287">
         <f t="shared" si="12"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G287">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H287">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I287">
         <v>-85.5</v>
@@ -12486,15 +12489,15 @@
       </c>
       <c r="F288">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G288">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H288">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I288">
         <v>-90</v>
@@ -12524,15 +12527,15 @@
       </c>
       <c r="F289">
         <f t="shared" si="12"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G289">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H289">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I289">
         <v>-94.5</v>
@@ -12562,15 +12565,15 @@
       </c>
       <c r="F290">
         <f t="shared" si="12"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G290">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H290">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I290">
         <v>-99</v>
@@ -12600,15 +12603,15 @@
       </c>
       <c r="F291">
         <f t="shared" si="12"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G291">
         <f t="shared" si="13"/>
-        <v>54.5</v>
+        <v>78.5</v>
       </c>
       <c r="H291">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I291">
         <v>-103.5</v>
@@ -12638,15 +12641,15 @@
       </c>
       <c r="F292">
         <f t="shared" si="12"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G292">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H292">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -12676,15 +12679,15 @@
       </c>
       <c r="F293">
         <f t="shared" si="12"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G293">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H293">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I293">
         <v>-4.5</v>
@@ -12714,15 +12717,15 @@
       </c>
       <c r="F294">
         <f t="shared" si="12"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G294">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H294">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I294">
         <v>-9</v>
@@ -12752,15 +12755,15 @@
       </c>
       <c r="F295">
         <f t="shared" si="12"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G295">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H295">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I295">
         <v>-13.5</v>
@@ -12790,15 +12793,15 @@
       </c>
       <c r="F296">
         <f t="shared" si="12"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G296">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H296">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I296">
         <v>-18</v>
@@ -12828,15 +12831,15 @@
       </c>
       <c r="F297">
         <f t="shared" si="12"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G297">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H297">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I297">
         <v>-22.5</v>
@@ -12866,15 +12869,15 @@
       </c>
       <c r="F298">
         <f t="shared" si="12"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G298">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H298">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I298">
         <v>-27</v>
@@ -12904,15 +12907,15 @@
       </c>
       <c r="F299">
         <f t="shared" si="12"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G299">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H299">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I299">
         <v>-31.5</v>
@@ -12942,15 +12945,15 @@
       </c>
       <c r="F300">
         <f t="shared" si="12"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G300">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H300">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I300">
         <v>-36</v>
@@ -12980,15 +12983,15 @@
       </c>
       <c r="F301">
         <f t="shared" si="12"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G301">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H301">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I301">
         <v>-40.5</v>
@@ -13018,15 +13021,15 @@
       </c>
       <c r="F302">
         <f t="shared" si="12"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G302">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H302">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I302">
         <v>-45</v>
@@ -13056,15 +13059,15 @@
       </c>
       <c r="F303">
         <f t="shared" si="12"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G303">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H303">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I303">
         <v>-49.5</v>
@@ -13094,15 +13097,15 @@
       </c>
       <c r="F304">
         <f t="shared" si="12"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G304">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H304">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I304">
         <v>-54</v>
@@ -13132,15 +13135,15 @@
       </c>
       <c r="F305">
         <f t="shared" si="12"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G305">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H305">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I305">
         <v>-58.5</v>
@@ -13170,15 +13173,15 @@
       </c>
       <c r="F306">
         <f t="shared" si="12"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G306">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H306">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I306">
         <v>-63</v>
@@ -13208,15 +13211,15 @@
       </c>
       <c r="F307">
         <f t="shared" si="12"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G307">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H307">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I307">
         <v>-67.5</v>
@@ -13246,15 +13249,15 @@
       </c>
       <c r="F308">
         <f t="shared" si="12"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G308">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H308">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I308">
         <v>-72</v>
@@ -13284,15 +13287,15 @@
       </c>
       <c r="F309">
         <f t="shared" si="12"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G309">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H309">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I309">
         <v>-76.5</v>
@@ -13322,15 +13325,15 @@
       </c>
       <c r="F310">
         <f t="shared" si="12"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G310">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H310">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I310">
         <v>-81</v>
@@ -13360,15 +13363,15 @@
       </c>
       <c r="F311">
         <f t="shared" si="12"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G311">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H311">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I311">
         <v>-85.5</v>
@@ -13398,15 +13401,15 @@
       </c>
       <c r="F312">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G312">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H312">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I312">
         <v>-90</v>
@@ -13436,15 +13439,15 @@
       </c>
       <c r="F313">
         <f t="shared" si="12"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G313">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H313">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I313">
         <v>-94.5</v>
@@ -13474,15 +13477,15 @@
       </c>
       <c r="F314">
         <f t="shared" si="12"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G314">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H314">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I314">
         <v>-99</v>
@@ -13512,15 +13515,15 @@
       </c>
       <c r="F315">
         <f t="shared" si="12"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G315">
         <f t="shared" si="13"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="H315">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I315">
         <v>-103.5</v>
@@ -13550,15 +13553,15 @@
       </c>
       <c r="F316">
         <f t="shared" si="12"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G316">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H316">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -13588,15 +13591,15 @@
       </c>
       <c r="F317">
         <f t="shared" si="12"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G317">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H317">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I317">
         <v>-4.5</v>
@@ -13626,15 +13629,15 @@
       </c>
       <c r="F318">
         <f t="shared" si="12"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G318">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H318">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I318">
         <v>-9</v>
@@ -13664,15 +13667,15 @@
       </c>
       <c r="F319">
         <f t="shared" si="12"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G319">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H319">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I319">
         <v>-13.5</v>
@@ -13702,15 +13705,15 @@
       </c>
       <c r="F320">
         <f t="shared" si="12"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G320">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H320">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I320">
         <v>-18</v>
@@ -13740,15 +13743,15 @@
       </c>
       <c r="F321">
         <f t="shared" si="12"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G321">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H321">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I321">
         <v>-22.5</v>
@@ -13778,15 +13781,15 @@
       </c>
       <c r="F322">
         <f t="shared" si="12"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G322">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H322">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I322">
         <v>-27</v>
@@ -13816,15 +13819,15 @@
       </c>
       <c r="F323">
         <f t="shared" si="12"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G323">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H323">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I323">
         <v>-31.5</v>
@@ -13854,15 +13857,15 @@
       </c>
       <c r="F324">
         <f t="shared" si="12"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G324">
         <f t="shared" si="13"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H324">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I324">
         <v>-36</v>
@@ -13892,15 +13895,15 @@
       </c>
       <c r="F325">
         <f t="shared" ref="F325:F387" si="15">$I$2+I325</f>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G325">
         <f t="shared" ref="G325:G387" si="16">$J$2+J325</f>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H325">
         <f t="shared" ref="H325:H387" si="17">$K$2+K325</f>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I325">
         <v>-40.5</v>
@@ -13930,15 +13933,15 @@
       </c>
       <c r="F326">
         <f t="shared" si="15"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G326">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H326">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I326">
         <v>-45</v>
@@ -13968,15 +13971,15 @@
       </c>
       <c r="F327">
         <f t="shared" si="15"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G327">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H327">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I327">
         <v>-49.5</v>
@@ -14006,15 +14009,15 @@
       </c>
       <c r="F328">
         <f t="shared" si="15"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G328">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H328">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I328">
         <v>-54</v>
@@ -14044,15 +14047,15 @@
       </c>
       <c r="F329">
         <f t="shared" si="15"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G329">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H329">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I329">
         <v>-58.5</v>
@@ -14082,15 +14085,15 @@
       </c>
       <c r="F330">
         <f t="shared" si="15"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G330">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H330">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I330">
         <v>-63</v>
@@ -14120,15 +14123,15 @@
       </c>
       <c r="F331">
         <f t="shared" si="15"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G331">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H331">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I331">
         <v>-67.5</v>
@@ -14158,15 +14161,15 @@
       </c>
       <c r="F332">
         <f t="shared" si="15"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G332">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H332">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I332">
         <v>-72</v>
@@ -14196,15 +14199,15 @@
       </c>
       <c r="F333">
         <f t="shared" si="15"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G333">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H333">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I333">
         <v>-76.5</v>
@@ -14234,15 +14237,15 @@
       </c>
       <c r="F334">
         <f t="shared" si="15"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G334">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H334">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I334">
         <v>-81</v>
@@ -14272,15 +14275,15 @@
       </c>
       <c r="F335">
         <f t="shared" si="15"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G335">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H335">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I335">
         <v>-85.5</v>
@@ -14310,15 +14313,15 @@
       </c>
       <c r="F336">
         <f t="shared" si="15"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G336">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H336">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I336">
         <v>-90</v>
@@ -14348,15 +14351,15 @@
       </c>
       <c r="F337">
         <f t="shared" si="15"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G337">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H337">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I337">
         <v>-94.5</v>
@@ -14386,15 +14389,15 @@
       </c>
       <c r="F338">
         <f t="shared" si="15"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G338">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H338">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I338">
         <v>-99</v>
@@ -14424,15 +14427,15 @@
       </c>
       <c r="F339">
         <f t="shared" si="15"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G339">
         <f t="shared" si="16"/>
-        <v>63.5</v>
+        <v>87.5</v>
       </c>
       <c r="H339">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I339">
         <v>-103.5</v>
@@ -14462,15 +14465,15 @@
       </c>
       <c r="F340">
         <f t="shared" si="15"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G340">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H340">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -14500,15 +14503,15 @@
       </c>
       <c r="F341">
         <f t="shared" si="15"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G341">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H341">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I341">
         <v>-4.5</v>
@@ -14538,15 +14541,15 @@
       </c>
       <c r="F342">
         <f t="shared" si="15"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G342">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H342">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I342">
         <v>-9</v>
@@ -14576,15 +14579,15 @@
       </c>
       <c r="F343">
         <f t="shared" si="15"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G343">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H343">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I343">
         <v>-13.5</v>
@@ -14614,15 +14617,15 @@
       </c>
       <c r="F344">
         <f t="shared" si="15"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G344">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H344">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I344">
         <v>-18</v>
@@ -14652,15 +14655,15 @@
       </c>
       <c r="F345">
         <f t="shared" si="15"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G345">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H345">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I345">
         <v>-22.5</v>
@@ -14690,15 +14693,15 @@
       </c>
       <c r="F346">
         <f t="shared" si="15"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G346">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H346">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I346">
         <v>-27</v>
@@ -14728,15 +14731,15 @@
       </c>
       <c r="F347">
         <f t="shared" si="15"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G347">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H347">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I347">
         <v>-31.5</v>
@@ -14766,15 +14769,15 @@
       </c>
       <c r="F348">
         <f t="shared" si="15"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G348">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H348">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I348">
         <v>-36</v>
@@ -14804,15 +14807,15 @@
       </c>
       <c r="F349">
         <f t="shared" si="15"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G349">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H349">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I349">
         <v>-40.5</v>
@@ -14842,15 +14845,15 @@
       </c>
       <c r="F350">
         <f t="shared" si="15"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G350">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H350">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I350">
         <v>-45</v>
@@ -14880,15 +14883,15 @@
       </c>
       <c r="F351">
         <f t="shared" si="15"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G351">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H351">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I351">
         <v>-49.5</v>
@@ -14918,15 +14921,15 @@
       </c>
       <c r="F352">
         <f t="shared" si="15"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G352">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H352">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I352">
         <v>-54</v>
@@ -14956,15 +14959,15 @@
       </c>
       <c r="F353">
         <f t="shared" si="15"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G353">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H353">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I353">
         <v>-58.5</v>
@@ -14994,15 +14997,15 @@
       </c>
       <c r="F354">
         <f t="shared" si="15"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G354">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H354">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I354">
         <v>-63</v>
@@ -15032,15 +15035,15 @@
       </c>
       <c r="F355">
         <f t="shared" si="15"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G355">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H355">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I355">
         <v>-67.5</v>
@@ -15070,15 +15073,15 @@
       </c>
       <c r="F356">
         <f t="shared" si="15"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G356">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H356">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I356">
         <v>-72</v>
@@ -15108,15 +15111,15 @@
       </c>
       <c r="F357">
         <f t="shared" si="15"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G357">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H357">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I357">
         <v>-76.5</v>
@@ -15146,15 +15149,15 @@
       </c>
       <c r="F358">
         <f t="shared" si="15"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G358">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H358">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I358">
         <v>-81</v>
@@ -15184,15 +15187,15 @@
       </c>
       <c r="F359">
         <f t="shared" si="15"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G359">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H359">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I359">
         <v>-85.5</v>
@@ -15222,15 +15225,15 @@
       </c>
       <c r="F360">
         <f t="shared" si="15"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G360">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H360">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I360">
         <v>-90</v>
@@ -15260,15 +15263,15 @@
       </c>
       <c r="F361">
         <f t="shared" si="15"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G361">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H361">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I361">
         <v>-94.5</v>
@@ -15298,15 +15301,15 @@
       </c>
       <c r="F362">
         <f t="shared" si="15"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G362">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H362">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I362">
         <v>-99</v>
@@ -15336,15 +15339,15 @@
       </c>
       <c r="F363">
         <f t="shared" si="15"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G363">
         <f t="shared" si="16"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H363">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I363">
         <v>-103.5</v>
@@ -15374,15 +15377,15 @@
       </c>
       <c r="F364">
         <f t="shared" si="15"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G364">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H364">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I364">
         <v>0</v>
@@ -15412,15 +15415,15 @@
       </c>
       <c r="F365">
         <f t="shared" si="15"/>
-        <v>-14.5</v>
+        <v>-4.5</v>
       </c>
       <c r="G365">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H365">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I365">
         <v>-4.5</v>
@@ -15450,15 +15453,15 @@
       </c>
       <c r="F366">
         <f t="shared" si="15"/>
-        <v>-19</v>
+        <v>-9</v>
       </c>
       <c r="G366">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H366">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I366">
         <v>-9</v>
@@ -15488,15 +15491,15 @@
       </c>
       <c r="F367">
         <f t="shared" si="15"/>
-        <v>-23.5</v>
+        <v>-13.5</v>
       </c>
       <c r="G367">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H367">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I367">
         <v>-13.5</v>
@@ -15526,15 +15529,15 @@
       </c>
       <c r="F368">
         <f t="shared" si="15"/>
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="G368">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H368">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I368">
         <v>-18</v>
@@ -15564,15 +15567,15 @@
       </c>
       <c r="F369">
         <f t="shared" si="15"/>
-        <v>-32.5</v>
+        <v>-22.5</v>
       </c>
       <c r="G369">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H369">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I369">
         <v>-22.5</v>
@@ -15602,15 +15605,15 @@
       </c>
       <c r="F370">
         <f t="shared" si="15"/>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="G370">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H370">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I370">
         <v>-27</v>
@@ -15640,15 +15643,15 @@
       </c>
       <c r="F371">
         <f t="shared" si="15"/>
-        <v>-41.5</v>
+        <v>-31.5</v>
       </c>
       <c r="G371">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H371">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I371">
         <v>-31.5</v>
@@ -15678,15 +15681,15 @@
       </c>
       <c r="F372">
         <f t="shared" si="15"/>
-        <v>-46</v>
+        <v>-36</v>
       </c>
       <c r="G372">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H372">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I372">
         <v>-36</v>
@@ -15716,15 +15719,15 @@
       </c>
       <c r="F373">
         <f t="shared" si="15"/>
-        <v>-50.5</v>
+        <v>-40.5</v>
       </c>
       <c r="G373">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H373">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I373">
         <v>-40.5</v>
@@ -15754,15 +15757,15 @@
       </c>
       <c r="F374">
         <f t="shared" si="15"/>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="G374">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H374">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I374">
         <v>-45</v>
@@ -15792,15 +15795,15 @@
       </c>
       <c r="F375">
         <f t="shared" si="15"/>
-        <v>-59.5</v>
+        <v>-49.5</v>
       </c>
       <c r="G375">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H375">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I375">
         <v>-49.5</v>
@@ -15830,15 +15833,15 @@
       </c>
       <c r="F376">
         <f t="shared" si="15"/>
-        <v>-64</v>
+        <v>-54</v>
       </c>
       <c r="G376">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H376">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I376">
         <v>-54</v>
@@ -15868,15 +15871,15 @@
       </c>
       <c r="F377">
         <f t="shared" si="15"/>
-        <v>-68.5</v>
+        <v>-58.5</v>
       </c>
       <c r="G377">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H377">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I377">
         <v>-58.5</v>
@@ -15906,15 +15909,15 @@
       </c>
       <c r="F378">
         <f t="shared" si="15"/>
-        <v>-73</v>
+        <v>-63</v>
       </c>
       <c r="G378">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H378">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I378">
         <v>-63</v>
@@ -15944,15 +15947,15 @@
       </c>
       <c r="F379">
         <f t="shared" si="15"/>
-        <v>-77.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G379">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H379">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I379">
         <v>-67.5</v>
@@ -15982,15 +15985,15 @@
       </c>
       <c r="F380">
         <f t="shared" si="15"/>
-        <v>-82</v>
+        <v>-72</v>
       </c>
       <c r="G380">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H380">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I380">
         <v>-72</v>
@@ -16020,15 +16023,15 @@
       </c>
       <c r="F381">
         <f t="shared" si="15"/>
-        <v>-86.5</v>
+        <v>-76.5</v>
       </c>
       <c r="G381">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H381">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I381">
         <v>-76.5</v>
@@ -16058,15 +16061,15 @@
       </c>
       <c r="F382">
         <f t="shared" si="15"/>
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="G382">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H382">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I382">
         <v>-81</v>
@@ -16096,15 +16099,15 @@
       </c>
       <c r="F383">
         <f t="shared" si="15"/>
-        <v>-95.5</v>
+        <v>-85.5</v>
       </c>
       <c r="G383">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H383">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I383">
         <v>-85.5</v>
@@ -16134,15 +16137,15 @@
       </c>
       <c r="F384">
         <f t="shared" si="15"/>
-        <v>-100</v>
+        <v>-90</v>
       </c>
       <c r="G384">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H384">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I384">
         <v>-90</v>
@@ -16172,15 +16175,15 @@
       </c>
       <c r="F385">
         <f t="shared" si="15"/>
-        <v>-104.5</v>
+        <v>-94.5</v>
       </c>
       <c r="G385">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H385">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I385">
         <v>-94.5</v>
@@ -16210,15 +16213,15 @@
       </c>
       <c r="F386">
         <f t="shared" si="15"/>
-        <v>-109</v>
+        <v>-99</v>
       </c>
       <c r="G386">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H386">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I386">
         <v>-99</v>
@@ -16248,15 +16251,15 @@
       </c>
       <c r="F387">
         <f t="shared" si="15"/>
-        <v>-113.5</v>
+        <v>-103.5</v>
       </c>
       <c r="G387">
         <f t="shared" si="16"/>
-        <v>72.5</v>
+        <v>96.5</v>
       </c>
       <c r="H387">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="I387">
         <v>-103.5</v>
